--- a/results/mp/logistic/corona/confidence/126/topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,69 +40,78 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>sc</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -112,15 +121,27 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>:</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
@@ -130,136 +151,157 @@
     <t>the</t>
   </si>
   <si>
-    <t>19</t>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>strong</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>helping</t>
   </si>
   <si>
     <t>important</t>
@@ -274,10 +316,7 @@
     <t>sure</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>keep</t>
   </si>
   <si>
     <t>your</t>
@@ -289,40 +328,46 @@
     <t>you</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>we</t>
   </si>
   <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>are</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>in</t>
@@ -683,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +736,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -770,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="L3">
         <v>43</v>
       </c>
-      <c r="K3">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="L3">
-        <v>44</v>
-      </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -794,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -802,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7894736842105263</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -844,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -852,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7773972602739726</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C5">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -870,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -894,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -902,13 +947,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -923,16 +968,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6052631578947368</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8407310704960835</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L8">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1097,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5945945945945946</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1147,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5882352941176471</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8381201044386423</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,37 +1197,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.52</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1194,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1202,13 +1247,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1223,16 +1268,16 @@
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,13 +1297,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4612403100775194</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C13">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1270,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4391534391534391</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1320,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,13 +1397,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1447,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3728813559322034</v>
+        <v>0.4573643410852713</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1420,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.765625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1444,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,13 +1497,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3529411764705883</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.7441860465116279</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1494,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,13 +1547,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3454545454545455</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1520,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.7307692307692307</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1544,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,16 +1618,16 @@
         <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7272727272727273</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,13 +1647,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3214285714285715</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1620,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1644,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,13 +1697,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3087248322147651</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1670,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1694,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1702,13 +1747,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2444444444444444</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C22">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1720,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.6808510638297872</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1744,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1752,13 +1797,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2363636363636364</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1770,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1794,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1802,13 +1847,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1888888888888889</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1820,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.6323529411764706</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1844,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,13 +1897,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1746031746031746</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1870,31 +1915,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.6054421768707483</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L25">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1902,13 +1947,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1152815013404826</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1920,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1944,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1952,31 +1997,31 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01612903225806452</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>854</v>
+        <v>74</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.5909090909090909</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L27">
         <v>13</v>
@@ -1994,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2002,37 +2047,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01457253886010363</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>3043</v>
+        <v>223</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.5857142857142857</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2044,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2052,37 +2097,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01397121083827265</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="C29">
         <v>33</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.6599999999999999</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2329</v>
+        <v>340</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.574468085106383</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2094,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2102,37 +2147,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01295336787564767</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1143</v>
+        <v>284</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.66</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2144,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2152,37 +2197,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.008741258741258742</v>
+        <v>0.02435064935064935</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="F31">
-        <v>0.49</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2268</v>
+        <v>601</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.5564853556485355</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L31">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="M31">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2194,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2202,37 +2247,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008233679670652813</v>
+        <v>0.01811125485122898</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E32">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="F32">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>5059</v>
+        <v>3036</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.550561797752809</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2244,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2252,37 +2297,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007540056550424128</v>
+        <v>0.01718213058419244</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="F33">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2106</v>
+        <v>858</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.5357142857142857</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2294,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2302,37 +2347,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005491153142159854</v>
+        <v>0.01563160118293198</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="E34">
-        <v>0.75</v>
+        <v>0.24</v>
       </c>
       <c r="F34">
-        <v>0.25</v>
+        <v>0.76</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>4890</v>
+        <v>2330</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.5185185185185185</v>
+        <v>0.6108786610878661</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2344,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2352,37 +2397,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004206590324842253</v>
+        <v>0.01364063969896519</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E35">
-        <v>0.73</v>
+        <v>0.37</v>
       </c>
       <c r="F35">
-        <v>0.27</v>
+        <v>0.63</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>4261</v>
+        <v>2097</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2394,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2402,271 +2447,463 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004124365482233503</v>
+        <v>0.01329787234042553</v>
       </c>
       <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>0.44</v>
+      </c>
+      <c r="F36">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1113</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="L36">
+        <v>174</v>
+      </c>
+      <c r="M36">
+        <v>175</v>
+      </c>
+      <c r="N36">
+        <v>0.99</v>
+      </c>
+      <c r="O36">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.01210025929127053</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0.22</v>
+      </c>
+      <c r="F37">
+        <v>0.78</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1143</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L37">
+        <v>14</v>
+      </c>
+      <c r="M37">
+        <v>14</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.009602793539938891</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>0.45</v>
+      </c>
+      <c r="F38">
+        <v>0.55</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2269</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.009228352640879638</v>
+      </c>
+      <c r="C39">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>119</v>
+      </c>
+      <c r="E39">
+        <v>0.61</v>
+      </c>
+      <c r="F39">
+        <v>0.39</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>5046</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L39">
+        <v>36</v>
+      </c>
+      <c r="M39">
+        <v>36</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.007944073721004131</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>79</v>
+      </c>
+      <c r="E40">
+        <v>0.68</v>
+      </c>
+      <c r="F40">
+        <v>0.32</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3122</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L40">
+        <v>45</v>
+      </c>
+      <c r="M40">
+        <v>45</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.00794314381270903</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>72</v>
+      </c>
+      <c r="E41">
+        <v>0.74</v>
+      </c>
+      <c r="F41">
+        <v>0.26</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2373</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
         <v>13</v>
       </c>
-      <c r="D36">
-        <v>62</v>
-      </c>
-      <c r="E36">
-        <v>0.79</v>
-      </c>
-      <c r="F36">
-        <v>0.21</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>3139</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.4246575342465753</v>
-      </c>
-      <c r="L36">
-        <v>31</v>
-      </c>
-      <c r="M36">
-        <v>31</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38">
-        <v>0.4</v>
-      </c>
-      <c r="L38">
-        <v>16</v>
-      </c>
-      <c r="M38">
-        <v>16</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="L39">
+      <c r="M41">
         <v>13</v>
       </c>
-      <c r="M39">
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>13</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="L40">
-        <v>16</v>
-      </c>
-      <c r="M40">
-        <v>16</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.007742461287693562</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42">
+        <v>126</v>
+      </c>
+      <c r="E42">
+        <v>0.7</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>4870</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>25</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>0.3717948717948718</v>
-      </c>
-      <c r="L41">
-        <v>29</v>
-      </c>
-      <c r="M41">
-        <v>29</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.00650095602294455</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>75</v>
+      </c>
+      <c r="E43">
+        <v>0.77</v>
+      </c>
+      <c r="F43">
+        <v>0.23</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2598</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="L42">
-        <v>14</v>
-      </c>
-      <c r="M42">
-        <v>14</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.2456140350877193</v>
-      </c>
-      <c r="L43">
-        <v>14</v>
-      </c>
-      <c r="M43">
-        <v>14</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
+      <c r="B44">
+        <v>0.006324666198172874</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>86</v>
+      </c>
+      <c r="E44">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>4242</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L44">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>35</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0.2131147540983606</v>
-      </c>
-      <c r="L44">
-        <v>13</v>
-      </c>
-      <c r="M44">
-        <v>13</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.203125</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2678,21 +2915,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.1805555555555556</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2704,683 +2941,865 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.1203703703703704</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N47">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.04578754578754578</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>521</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.04086538461538462</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N49">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>399</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.04013377926421405</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L50">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N50">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1148</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.0325077399380805</v>
+        <v>0.21875</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N51">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>625</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.02944162436548223</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>956</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.021630615640599</v>
+        <v>0.0603290676416819</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N53">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>588</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.0202020202020202</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N54">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="O54">
-        <v>0.24</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1552</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.01954152574220218</v>
+        <v>0.05179615705931495</v>
       </c>
       <c r="L55">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M55">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N55">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0.1899999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2609</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.01884422110552764</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="L56">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N56">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O56">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2343</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.0182648401826484</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N57">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>860</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.01726263871763255</v>
+        <v>0.03735632183908046</v>
       </c>
       <c r="L58">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N58">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="O58">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2391</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.016270337922403</v>
+        <v>0.03153611393692777</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N59">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="O59">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>786</v>
+        <v>952</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="K60">
-        <v>0.01612903225806452</v>
+        <v>0.02692307692307692</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M60">
         <v>28</v>
       </c>
       <c r="N60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>854</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>0.01589857114107466</v>
+        <v>0.02558398220244716</v>
       </c>
       <c r="L61">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="N61">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="O61">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>4890</v>
+        <v>876</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K62">
-        <v>0.01564945226917058</v>
+        <v>0.02495840266222962</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N62">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="O62">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>1258</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="K63">
-        <v>0.01537013801756587</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L63">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="N63">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="O63">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>3139</v>
+        <v>779</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K64">
-        <v>0.01447661469933185</v>
+        <v>0.0229933110367893</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="N64">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0.1899999999999999</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>885</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>0.01251203079884504</v>
+        <v>0.02184666117065128</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0.26</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1026</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>0.01249268007027133</v>
+        <v>0.02183734939759036</v>
       </c>
       <c r="L66">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M66">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="N66">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="O66">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>5059</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K67">
-        <v>0.01162790697674419</v>
+        <v>0.0201638311279143</v>
       </c>
       <c r="L67">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M67">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N67">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="O67">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>2125</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="K68">
-        <v>0.01136890951276102</v>
+        <v>0.01879404855129209</v>
       </c>
       <c r="L68">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M68">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="N68">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="O68">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>4261</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="K69">
-        <v>0.009873060648801129</v>
+        <v>0.0182328190743338</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N69">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="O69">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>2106</v>
+        <v>700</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>0.009174311926605505</v>
+        <v>0.01774909237595805</v>
       </c>
       <c r="L70">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="M70">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N70">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="O70">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>2268</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>0.007246376811594203</v>
+        <v>0.01700251889168766</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M71">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N71">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="O71">
-        <v>0.6599999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2329</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="K72">
-        <v>0.0062050947093403</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N72">
-        <v>0.3</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O72">
-        <v>0.7</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>3043</v>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K73">
+        <v>0.01683501683501683</v>
+      </c>
+      <c r="L73">
+        <v>15</v>
+      </c>
+      <c r="M73">
+        <v>18</v>
+      </c>
+      <c r="N73">
+        <v>0.83</v>
+      </c>
+      <c r="O73">
+        <v>0.17</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K74">
+        <v>0.0144387517466232</v>
+      </c>
+      <c r="L74">
+        <v>31</v>
+      </c>
+      <c r="M74">
+        <v>42</v>
+      </c>
+      <c r="N74">
+        <v>0.74</v>
+      </c>
+      <c r="O74">
+        <v>0.26</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K75">
+        <v>0.01406799531066823</v>
+      </c>
+      <c r="L75">
+        <v>72</v>
+      </c>
+      <c r="M75">
+        <v>119</v>
+      </c>
+      <c r="N75">
+        <v>0.61</v>
+      </c>
+      <c r="O75">
+        <v>0.39</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76">
+        <v>0.01371774006045106</v>
+      </c>
+      <c r="L76">
+        <v>59</v>
+      </c>
+      <c r="M76">
+        <v>86</v>
+      </c>
+      <c r="N76">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O76">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77">
+        <v>0.008041627246925261</v>
+      </c>
+      <c r="L77">
+        <v>17</v>
+      </c>
+      <c r="M77">
+        <v>46</v>
+      </c>
+      <c r="N77">
+        <v>0.37</v>
+      </c>
+      <c r="O77">
+        <v>0.63</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78">
+        <v>0.007870572802798426</v>
+      </c>
+      <c r="L78">
+        <v>18</v>
+      </c>
+      <c r="M78">
+        <v>40</v>
+      </c>
+      <c r="N78">
+        <v>0.45</v>
+      </c>
+      <c r="O78">
+        <v>0.55</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>0.004916420845624385</v>
+      </c>
+      <c r="L79">
+        <v>15</v>
+      </c>
+      <c r="M79">
+        <v>71</v>
+      </c>
+      <c r="N79">
+        <v>0.21</v>
+      </c>
+      <c r="O79">
+        <v>0.79</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>3036</v>
       </c>
     </row>
   </sheetData>
